--- a/FulUserLoansCourtesyLetter/FulUserLoansCourtesyLetter-param-french.xlsx
+++ b/FulUserLoansCourtesyLetter/FulUserLoansCourtesyLetter-param-french.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.campus-condorcet.fr\Profils$\jérôme.chiavassa\Documents\Alma-Primo\Alma\Lettres\FulUserLoansCourtesyLetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.campus-condorcet.fr\Profils$\jérôme.chiavassa\Documents\ALMA PRIMO\Alma\Lettres\FulUserLoansCourtesyLetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="rowsForView" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rowsForView!$A$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -66,21 +69,24 @@
     <t>department</t>
   </si>
   <si>
-    <t>Grand équipement documentaire</t>
-  </si>
-  <si>
-    <t>Le Grand équipement documentaire</t>
+    <t>Humathèque</t>
+  </si>
+  <si>
+    <t>christine.aubree</t>
+  </si>
+  <si>
+    <t>letterName</t>
+  </si>
+  <si>
+    <t>Courtesy Letter</t>
+  </si>
+  <si>
+    <t>Lettre de courtoisie – votre prêt arrivera bientôt à échéance</t>
   </si>
   <si>
     <t>jcs</t>
   </si>
   <si>
-    <t>letterName</t>
-  </si>
-  <si>
-    <t>Courtesy Letter</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -141,18 +147,18 @@
     <t>Localisation</t>
   </si>
   <si>
+    <t>Bcc</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
     <t>Cc</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Aucun</t>
-  </si>
-  <si>
-    <t>Bcc</t>
-  </si>
-  <si>
     <t>renew_status</t>
   </si>
   <si>
@@ -180,25 +186,22 @@
     <t>Titre</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>We would like to remind you that the following items at your disposal are due shortly:</t>
+  </si>
+  <si>
+    <t>Le ou les exemplaire(s) ci-dessous doit(vent) être retourné(s) sous peu. Il est possible de prolonger ce ou ces prêts via votre compte lecteur.</t>
+  </si>
+  <si>
     <t>short_loans_message</t>
   </si>
   <si>
-    <t>We would like to remind you that the following items at your disposal are due shortly:</t>
-  </si>
-  <si>
-    <t>Le ou les exemplaire(s) ci-dessous doit(vent) être retourné(s) sous peu. Il est possible de prolonger ce ou ces prêts via votre compte lecteur.</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>addressFrom</t>
   </si>
   <si>
-    <t>services.ged@campus-condorcet.fr</t>
-  </si>
-  <si>
-    <t>Lettre de courtoisie – votre prêt arrivera bientôt à échéance</t>
+    <t>services.humatheque@campus-condorcet.fr</t>
   </si>
 </sst>
 </file>
@@ -244,10 +247,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,437 +540,440 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
         <v>44307</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="1">
-        <v>44307</v>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44903</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>